--- a/DataClasse_CodeSmell.xlsx
+++ b/DataClasse_CodeSmell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Escra\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F605DC1A-399C-4525-949A-7736CA51EABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8B90F2-1C52-48EC-8671-DEC5EBC60AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8B767FB8-F485-4769-912F-453BCD40F538}"/>
+    <workbookView xWindow="7200" yWindow="2595" windowWidth="21600" windowHeight="11385" xr2:uid="{8B767FB8-F485-4769-912F-453BCD40F538}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -34,14 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
   <si>
     <t>com.google.zxing.pdf417.detector.PDF417DetectorResult.java</t>
   </si>
   <si>
-    <t>não sei fazer refactor disto</t>
-  </si>
-  <si>
     <t>com.google.zxing.pdf417.encoder.Dimensions.java</t>
   </si>
   <si>
@@ -60,9 +57,6 @@
     <t>com.google.zxing.oned.rss.expanded.decoders.DecodedObject.java</t>
   </si>
   <si>
-    <t>a classe precisa de varias instancias do objeto q cria</t>
-  </si>
-  <si>
     <t>com.google.zxing.aztec.AztecDetectorResult.java</t>
   </si>
   <si>
@@ -72,9 +66,6 @@
     <t>com.google.zxing.pdf417.decoder.BarcodeMetadata.java</t>
   </si>
   <si>
-    <t>feito</t>
-  </si>
-  <si>
     <t>com.google.zxing.qrcode.encoder.BlockPair.java</t>
   </si>
   <si>
@@ -88,6 +79,9 @@
   </si>
   <si>
     <t>Descricao</t>
+  </si>
+  <si>
+    <t>refactor não realizado</t>
   </si>
 </sst>
 </file>
@@ -454,25 +448,25 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="70.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
     <col min="3" max="3" width="50.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -480,109 +474,109 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
